--- a/numpylearn/out.xlsx
+++ b/numpylearn/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>个数</t>
   </si>
@@ -22,25 +22,76 @@
     <t>比例</t>
   </si>
   <si>
-    <t>现金</t>
-  </si>
-  <si>
-    <t>支付宝付款码</t>
-  </si>
-  <si>
-    <t>微信付款码</t>
-  </si>
-  <si>
-    <t>支付宝扫一扫</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>61.60%</t>
-  </si>
-  <si>
-    <t>34.45%</t>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>绍兴</t>
+  </si>
+  <si>
+    <t>衢州</t>
+  </si>
+  <si>
+    <t>湖州</t>
+  </si>
+  <si>
+    <t>台州</t>
+  </si>
+  <si>
+    <t>丽水</t>
+  </si>
+  <si>
+    <t>舟山</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>35.26%</t>
+  </si>
+  <si>
+    <t>12.99%</t>
+  </si>
+  <si>
+    <t>12.02%</t>
+  </si>
+  <si>
+    <t>11.61%</t>
+  </si>
+  <si>
+    <t>10.45%</t>
+  </si>
+  <si>
+    <t>5.36%</t>
+  </si>
+  <si>
+    <t>3.17%</t>
+  </si>
+  <si>
+    <t>2.89%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>2.19%</t>
+  </si>
+  <si>
+    <t>1.57%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
   </si>
 </sst>
 </file>
@@ -398,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +468,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>862</v>
+        <v>2427</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13451</v>
+        <v>894</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7522</v>
+        <v>827</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +501,98 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>799</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>719</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/numpylearn/out.xlsx
+++ b/numpylearn/out.xlsx
@@ -1,129 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>个数</t>
-  </si>
-  <si>
-    <t>比例</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>金华</t>
-  </si>
-  <si>
-    <t>嘉兴</t>
-  </si>
-  <si>
-    <t>绍兴</t>
-  </si>
-  <si>
-    <t>衢州</t>
-  </si>
-  <si>
-    <t>湖州</t>
-  </si>
-  <si>
-    <t>台州</t>
-  </si>
-  <si>
-    <t>丽水</t>
-  </si>
-  <si>
-    <t>舟山</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>35.26%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>12.02%</t>
-  </si>
-  <si>
-    <t>11.61%</t>
-  </si>
-  <si>
-    <t>10.45%</t>
-  </si>
-  <si>
-    <t>5.36%</t>
-  </si>
-  <si>
-    <t>3.17%</t>
-  </si>
-  <si>
-    <t>2.89%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,36 +43,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,154 +409,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2427</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>894</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>827</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>799</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>719</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>369</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>